--- a/biology/Botanique/Ludwig_Karl_Georg_Pfeiffer/Ludwig_Karl_Georg_Pfeiffer.xlsx
+++ b/biology/Botanique/Ludwig_Karl_Georg_Pfeiffer/Ludwig_Karl_Georg_Pfeiffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Karl Georg Pfeiffer est un médecin, un botaniste et un malacologiste prussien, né le 4 juillet 1805 à Cassel et mort le 2 octobre 1877 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à Göttingen et à Marbourg de 1821 à 1825 avant de venir exercer à Cassel en 1826. En 1831, il sert comme médecin dans l’armée polonaise à Lazienki et à Povonsk puis à l’hôpital Alexandre de Varsovie. En 1838-1839, il fait un voyage à Cuba durant lequel, ainsi que durant d’autres voyages en Europe, il constitue une riche collection d’histoire naturelle. Il s’intéresse particulièrement aux cactées et aux mollusques. Pfeiffer traduit en allemand des œuvres de Philippe Pinel (1745-1826).
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beschreibung und Synonymik der in deutschen Gärten lebend vorkommenden Cacteen... (L. Öhmigke, Berlin, 1837).
 Enumeratio Diagnostica Cactearum, 1837.
